--- a/CRC cards.xlsx
+++ b/CRC cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -64,13 +64,40 @@
   </si>
   <si>
     <t>Also it collaborates with Course class, because specialisation = list of courses.</t>
+  </si>
+  <si>
+    <t>list of courses his attended to</t>
+  </si>
+  <si>
+    <t>his marks</t>
+  </si>
+  <si>
+    <t>his budget</t>
+  </si>
+  <si>
+    <t>and type of specialisation</t>
+  </si>
+  <si>
+    <t>Collaborates with Course and Stecialisation classes</t>
+  </si>
+  <si>
+    <t>specialisation by which report shoult be created</t>
+  </si>
+  <si>
+    <t>students by which report should be created</t>
+  </si>
+  <si>
+    <t>Collaborates with Student and Specialisation classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,8 +128,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +155,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -131,7 +177,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,40 +189,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -522,96 +583,192 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="B2:B6"/>
